--- a/Pesquisa de Compras Online(2).xlsx
+++ b/Pesquisa de Compras Online(2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/82ace842605b3a9b/Insper/AI/Project_Pesquisa/Pesquisa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{AD76E3FE-F0DA-4D0A-8A37-411FF16761DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3F5FFEDC-CD5B-4C09-87D1-6B7B9F6F9DE4}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{AD76E3FE-F0DA-4D0A-8A37-411FF16761DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{281CB01F-BF6F-445B-A7B5-83405D2DE5FC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="450">
   <si>
     <t>Faz compras via app?</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Fisicamente</t>
   </si>
   <si>
-    <t>Semanalmente compras de perecíveis e mensalmente não perecíveis</t>
-  </si>
-  <si>
     <t>Comodidade na entrega e preços mais baixos</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>Na maioria não são atrativos e difícil de entender</t>
   </si>
   <si>
-    <t xml:space="preserve">1 x por semana </t>
-  </si>
-  <si>
     <t>Ainda nada</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>Não uso</t>
   </si>
   <si>
-    <t>Semanalmente</t>
-  </si>
-  <si>
     <t>Nunca comprei</t>
   </si>
   <si>
@@ -161,9 +152,6 @@
     <t>Muito bom</t>
   </si>
   <si>
-    <t xml:space="preserve">Semanal </t>
-  </si>
-  <si>
     <t xml:space="preserve">Segurança </t>
   </si>
   <si>
@@ -179,9 +167,6 @@
     <t>Gosto, porque me dão benefícios.</t>
   </si>
   <si>
-    <t xml:space="preserve">Semanalmente </t>
-  </si>
-  <si>
     <t>Praticidade e não ter que carregar peso.</t>
   </si>
   <si>
@@ -218,9 +203,6 @@
     <t>Não sou heavy user.</t>
   </si>
   <si>
-    <t xml:space="preserve">semanalmente </t>
-  </si>
-  <si>
     <t>Facilidade de uso e comodidade na entrega</t>
   </si>
   <si>
@@ -260,9 +242,6 @@
     <t xml:space="preserve">Amo! O programa de fidelidade do Pão de Açúcar pra mim é perfeito. Muito bom mesmo! </t>
   </si>
   <si>
-    <t xml:space="preserve">1x por semana </t>
-  </si>
-  <si>
     <t xml:space="preserve">Desconto, praticidade. Acho que os horários de entrega ainda são inconvenientes (Espaco de tempo grande) e as coisas nem sempre chegam na qualidade ideal. </t>
   </si>
   <si>
@@ -278,9 +257,6 @@
     <t>Não costumo usar</t>
   </si>
   <si>
-    <t>A cada 15 dias</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
@@ -308,9 +284,6 @@
     <t>Um bonus a mais.</t>
   </si>
   <si>
-    <t>2 vezes por semana</t>
-  </si>
-  <si>
     <t>Nada</t>
   </si>
   <si>
@@ -323,9 +296,6 @@
     <t>Muito bom, principalmente os que dão descontos hahaha</t>
   </si>
   <si>
-    <t xml:space="preserve">1x ao mês </t>
-  </si>
-  <si>
     <t xml:space="preserve">Frete Grátis ou promoções </t>
   </si>
   <si>
@@ -344,9 +314,6 @@
     <t>Nao gosto</t>
   </si>
   <si>
-    <t xml:space="preserve">2x mês </t>
-  </si>
-  <si>
     <t xml:space="preserve">Facilidade de acesso </t>
   </si>
   <si>
@@ -365,9 +332,6 @@
     <t>muito bom</t>
   </si>
   <si>
-    <t>mensal</t>
-  </si>
-  <si>
     <t>nao gosto, pois nao posso escolher os produtos frescos</t>
   </si>
   <si>
@@ -413,9 +377,6 @@
     <t xml:space="preserve">Ótimo </t>
   </si>
   <si>
-    <t>Semanal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Por enquanto nada </t>
   </si>
   <si>
@@ -434,15 +395,9 @@
     <t>Travavam muito. Parei de usar.</t>
   </si>
   <si>
-    <t xml:space="preserve">Quinzenalmente </t>
-  </si>
-  <si>
     <t>Ótimo</t>
   </si>
   <si>
-    <t>2x semana</t>
-  </si>
-  <si>
     <t>Agilidade, facilidade</t>
   </si>
   <si>
@@ -479,9 +434,6 @@
     <t>Complicados</t>
   </si>
   <si>
-    <t>semanalmente</t>
-  </si>
-  <si>
     <t>Prazo de entrega</t>
   </si>
   <si>
@@ -497,9 +449,6 @@
     <t>Não utilizo</t>
   </si>
   <si>
-    <t>1x semana</t>
-  </si>
-  <si>
     <t>Preço e facilidade</t>
   </si>
   <si>
@@ -509,9 +458,6 @@
     <t xml:space="preserve">Interessante </t>
   </si>
   <si>
-    <t xml:space="preserve">2 x ao mês </t>
-  </si>
-  <si>
     <t xml:space="preserve">Não compro on line </t>
   </si>
   <si>
@@ -522,9 +468,6 @@
   </si>
   <si>
     <t>Gosto quando oferecem vantagens reais e possíveis de serem aproveitadas. Alguns programas só valem a pena para compras em valores altos demais.</t>
-  </si>
-  <si>
-    <t>mensalmente</t>
   </si>
   <si>
     <t>Facilidade na escolha e recebimento dos produtos e vantagens nos preços</t>
@@ -556,9 +499,6 @@
     <t xml:space="preserve">Legal porém não fantástico </t>
   </si>
   <si>
-    <t xml:space="preserve">2 a 4 vezes por mês </t>
-  </si>
-  <si>
     <t>Não compro online em supermercado</t>
   </si>
   <si>
@@ -601,9 +541,6 @@
     <t>Bom...tem desconto</t>
   </si>
   <si>
-    <t>Era mais raro,após pandemia mais frequente</t>
-  </si>
-  <si>
     <t>Segurança na covid</t>
   </si>
   <si>
@@ -616,9 +553,6 @@
     <t xml:space="preserve">Interessante. </t>
   </si>
   <si>
-    <t xml:space="preserve">1x na semana aproximadamente </t>
-  </si>
-  <si>
     <t>Fiz compra em supermercado on-line apenas uma vez por extrema necessidade (não tinha ninguém em casa para me levar).</t>
   </si>
   <si>
@@ -634,9 +568,6 @@
     <t>Aprovo</t>
   </si>
   <si>
-    <t>3 vezes por semana</t>
-  </si>
-  <si>
     <t>Verificando a seguranca</t>
   </si>
   <si>
@@ -646,9 +577,6 @@
     <t xml:space="preserve">Renner, CeA, Privalia </t>
   </si>
   <si>
-    <t xml:space="preserve">Toda semana </t>
-  </si>
-  <si>
     <t xml:space="preserve">Não gosto de comprar itens alimentícios on Line, gosto de ver e escolher fisicamente </t>
   </si>
   <si>
@@ -664,9 +592,6 @@
     <t xml:space="preserve">Gosto </t>
   </si>
   <si>
-    <t xml:space="preserve">1x semana </t>
-  </si>
-  <si>
     <t>Só se as frutas e verduras forem de qualidade</t>
   </si>
   <si>
@@ -694,9 +619,6 @@
     <t>Vantajoso</t>
   </si>
   <si>
-    <t>15/15 dias</t>
-  </si>
-  <si>
     <t xml:space="preserve">Só  tive esta experiência  qdo não pude me locomover por questão de saúde </t>
   </si>
   <si>
@@ -715,9 +637,6 @@
     <t>Acho válido, quando não são programas com datas de validade curtas</t>
   </si>
   <si>
-    <t>uma vez a cada duas semanas</t>
-  </si>
-  <si>
     <t>Economia de tempo e deslocamento</t>
   </si>
   <si>
@@ -733,9 +652,6 @@
     <t>Acho bom.</t>
   </si>
   <si>
-    <t>2x por semana</t>
-  </si>
-  <si>
     <t>Comodidade</t>
   </si>
   <si>
@@ -772,9 +688,6 @@
     <t xml:space="preserve">bobagem, pois nunca ganhou nada. atualmente </t>
   </si>
   <si>
-    <t>uma vez por semana, exceto se houver</t>
-  </si>
-  <si>
     <t>pandemia, conforto de receber em casa, gosta de passear no supermercado</t>
   </si>
   <si>
@@ -793,9 +706,6 @@
     <t>Acho uma boa, adoro descontos ou vantagens</t>
   </si>
   <si>
-    <t>Raramente minha mãe que realiza as compras.</t>
-  </si>
-  <si>
     <t>O preço, a qualidade dos produtos e a entrega com prazo curto.</t>
   </si>
   <si>
@@ -811,9 +721,6 @@
     <t>Amazon e Latam</t>
   </si>
   <si>
-    <t>1 vez por mês</t>
-  </si>
-  <si>
     <t>Não faço compras online em supermercado</t>
   </si>
   <si>
@@ -829,9 +736,6 @@
     <t>Excelente e estimula  a comprar mais.</t>
   </si>
   <si>
-    <t xml:space="preserve">Toda semana presencial </t>
-  </si>
-  <si>
     <t>Nada.</t>
   </si>
   <si>
@@ -862,9 +766,6 @@
     <t>Ifood, waze, Santander , nubank...</t>
   </si>
   <si>
-    <t xml:space="preserve">1 vez na semana </t>
-  </si>
-  <si>
     <t>Comodidade e descontos vistos</t>
   </si>
   <si>
@@ -895,9 +796,6 @@
     <t>Prefiro comprar pelos sites ao invés de por aplicativo</t>
   </si>
   <si>
-    <t xml:space="preserve">Muita </t>
-  </si>
-  <si>
     <t xml:space="preserve">Nunca utilizei esse serviço </t>
   </si>
   <si>
@@ -916,9 +814,6 @@
     <t xml:space="preserve">Qualidade dos produtos e entrega rápida </t>
   </si>
   <si>
-    <t>15 dias</t>
-  </si>
-  <si>
     <t>Não compro</t>
   </si>
   <si>
@@ -952,9 +847,6 @@
     <t>Depende da loja muito bom</t>
   </si>
   <si>
-    <t>Uma vez por semana</t>
-  </si>
-  <si>
     <t>A praticidade</t>
   </si>
   <si>
@@ -967,9 +859,6 @@
     <t>Sou a favor, atraem o consumidor.</t>
   </si>
   <si>
-    <t>Uma vez por semana.</t>
-  </si>
-  <si>
     <t>A comodidade.</t>
   </si>
   <si>
@@ -985,9 +874,6 @@
     <t>Atrativos</t>
   </si>
   <si>
-    <t xml:space="preserve">Mensalmente, Compro tudo que preciso e frutas e verduras semanalmente </t>
-  </si>
-  <si>
     <t>A facilidade e comodidade</t>
   </si>
   <si>
@@ -1006,9 +892,6 @@
     <t xml:space="preserve">Vantajoso </t>
   </si>
   <si>
-    <t xml:space="preserve">2/3 vezes por semana </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sim, mas raramente </t>
   </si>
   <si>
@@ -1027,9 +910,6 @@
     <t>Alguns bons</t>
   </si>
   <si>
-    <t xml:space="preserve">4 vezes na semana </t>
-  </si>
-  <si>
     <t xml:space="preserve">Por recomendação </t>
   </si>
   <si>
@@ -1039,9 +919,6 @@
     <t>Interessantes, mas atualmente não participo de nenhum</t>
   </si>
   <si>
-    <t>2 vezes ao mês</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nunca comprei </t>
   </si>
   <si>
@@ -1054,9 +931,6 @@
     <t xml:space="preserve">Alguns são interessantes </t>
   </si>
   <si>
-    <t xml:space="preserve">A cada 2 semanas </t>
-  </si>
-  <si>
     <t xml:space="preserve">Necessidade do momento </t>
   </si>
   <si>
@@ -1082,9 +956,6 @@
   </si>
   <si>
     <t>Interessante, porém com aplicativos complicados.</t>
-  </si>
-  <si>
-    <t>2 vezes por semana.</t>
   </si>
   <si>
     <t>Variedade, preços competitivos e entrega rápida.</t>
@@ -1162,9 +1033,6 @@
     <t>A mim, nao compensam.</t>
   </si>
   <si>
-    <t>1 x semana.</t>
-  </si>
-  <si>
     <t>Pedindo comida em app, sim.</t>
   </si>
   <si>
@@ -1174,9 +1042,6 @@
     <t>Sucesso na operação.</t>
   </si>
   <si>
-    <t>15 diad</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pela segurança </t>
   </si>
   <si>
@@ -1190,9 +1055,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tenho preconceito achando que vou receber vários e-mails </t>
-  </si>
-  <si>
-    <t>1 vez por semana</t>
   </si>
   <si>
     <t xml:space="preserve">Não costumo comprar pois gosto de ver as frutas e legumes e confirmar a validade dos produtos </t>
@@ -1213,9 +1075,6 @@
     <t xml:space="preserve">Econômico </t>
   </si>
   <si>
-    <t xml:space="preserve">Quinzenal </t>
-  </si>
-  <si>
     <t xml:space="preserve">Não compro por achar mais caro </t>
   </si>
   <si>
@@ -1229,9 +1088,6 @@
   </si>
   <si>
     <t xml:space="preserve">BOns mas pouco retorno para nós clientes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 vez por semana </t>
   </si>
   <si>
     <t>Naongosto</t>
@@ -1263,9 +1119,6 @@
 Schutz</t>
   </si>
   <si>
-    <t>A cada 2 semanas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Preguiça </t>
   </si>
   <si>
@@ -1281,9 +1134,6 @@
     <t>Ótimos! Uso</t>
   </si>
   <si>
-    <t>1x por mês</t>
-  </si>
-  <si>
     <t>Facilidade e economizar tempo</t>
   </si>
   <si>
@@ -1363,9 +1213,6 @@
   </si>
   <si>
     <t>gosto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3x ao mês </t>
   </si>
   <si>
     <t>não costumo</t>
@@ -1659,9 +1506,6 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -2234,6 +2078,9 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -2250,28 +2097,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:S96" totalsRowShown="0" headerRowDxfId="0" dataDxfId="20">
-  <autoFilter ref="A1:S96" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:S96" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:S96" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Sim"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Fisicamente"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Faz compras via app?" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{179CFB25-DBD0-4FB0-9AA2-33B24D82FCD8}" name="Quais apps costuma usar?" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{D5A22DA0-1E52-4818-9C3F-E3269C628550}" name="As compras de supermecado são feitas por app ou fisicamente?" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{7F71E707-4A61-42DB-88AF-FC30FC08BBE6}" name="O que acha de programas de fidelidade?" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{551D5425-5049-45C3-8C26-8F0BF80C74F8}" name="O que acha de programas de fidelidade?2" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{4393F01D-5DAE-49DA-9BCB-62EF83310074}" name="Como você escolhe a plataforma?" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{D0EEDECF-7D2D-4F14-BB77-F53D8A3F1DC4}" name="O que te faz comprar de novo na mesma plataforma?" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{CF19A673-6971-48E4-A96B-BA9DFADB68C8}" name="Você já teve problemas com a compra?" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{1A985713-08E4-4C17-853F-95B2FA60FAFF}" name="As compras de supermecado são feitas por app ou fisicamente?2" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{328902CE-2E30-4552-AE25-DF0834BB792D}" name="Com que frequência você faz compras de mercado?" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{8AEF4A91-F7F2-41CE-8B67-9A48B5E62E24}" name="O que te estimula comprar em supermercado online?" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{ED18E672-C62C-49B5-97A3-C62132E68710}" name="Você já teve problemas com a compra?2" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{1A8ED9E7-1D6D-4BA0-AF9B-5D14CAEFB4C4}" name="Já fez compras de supermercado app?" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{8F99884C-DD1F-427F-AA3B-2620CE8A6159}" name="E outro tipo de produto?" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{C5805A32-C1B1-4DAE-AD2D-EEFAE783A18D}" name="Poderia nos contar por que não faz mais?" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{85D59438-1B83-49E8-ABE0-4D96D570B0D6}" name="Poderia contar por que nunca fez?" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{013E2D5D-4464-4298-AD9B-7F21A30C25B7}" name="Como você escolhe a plataforma?2" dataDxfId="3"/>
-    <tableColumn id="23" xr3:uid="{64DC2EB7-806B-4904-8CD1-137504A4072C}" name="O que te faz comprar de novo na mesma plataforma?2" dataDxfId="2"/>
-    <tableColumn id="24" xr3:uid="{0EA105A8-CFC2-43BA-982A-8F7E2325A7A9}" name="Poderia nos contar por que não faz mais?2" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Faz compras via app?" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{179CFB25-DBD0-4FB0-9AA2-33B24D82FCD8}" name="Quais apps costuma usar?" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{D5A22DA0-1E52-4818-9C3F-E3269C628550}" name="As compras de supermecado são feitas por app ou fisicamente?" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{7F71E707-4A61-42DB-88AF-FC30FC08BBE6}" name="O que acha de programas de fidelidade?" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{551D5425-5049-45C3-8C26-8F0BF80C74F8}" name="O que acha de programas de fidelidade?2" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{4393F01D-5DAE-49DA-9BCB-62EF83310074}" name="Como você escolhe a plataforma?" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{D0EEDECF-7D2D-4F14-BB77-F53D8A3F1DC4}" name="O que te faz comprar de novo na mesma plataforma?" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{CF19A673-6971-48E4-A96B-BA9DFADB68C8}" name="Você já teve problemas com a compra?" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{1A985713-08E4-4C17-853F-95B2FA60FAFF}" name="As compras de supermecado são feitas por app ou fisicamente?2" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{328902CE-2E30-4552-AE25-DF0834BB792D}" name="Com que frequência você faz compras de mercado?" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{8AEF4A91-F7F2-41CE-8B67-9A48B5E62E24}" name="O que te estimula comprar em supermercado online?" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{ED18E672-C62C-49B5-97A3-C62132E68710}" name="Você já teve problemas com a compra?2" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{1A8ED9E7-1D6D-4BA0-AF9B-5D14CAEFB4C4}" name="Já fez compras de supermercado app?" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{8F99884C-DD1F-427F-AA3B-2620CE8A6159}" name="E outro tipo de produto?" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{C5805A32-C1B1-4DAE-AD2D-EEFAE783A18D}" name="Poderia nos contar por que não faz mais?" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{85D59438-1B83-49E8-ABE0-4D96D570B0D6}" name="Poderia contar por que nunca fez?" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{013E2D5D-4464-4298-AD9B-7F21A30C25B7}" name="Como você escolhe a plataforma?2" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{64DC2EB7-806B-4904-8CD1-137504A4072C}" name="O que te faz comprar de novo na mesma plataforma?2" dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{0EA105A8-CFC2-43BA-982A-8F7E2325A7A9}" name="Poderia nos contar por que não faz mais?2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2576,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="E71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2651,7 +2509,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>462</v>
+        <v>411</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>21</v>
@@ -2659,20 +2517,20 @@
       <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="58" x14ac:dyDescent="0.35">
@@ -2680,28 +2538,28 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>463</v>
+        <v>412</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="R3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -2709,28 +2567,28 @@
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="58" x14ac:dyDescent="0.35">
@@ -2738,28 +2596,28 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>465</v>
+        <v>414</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
@@ -2767,45 +2625,45 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>466</v>
+        <v>415</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:19" ht="116" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="116" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>19</v>
@@ -2819,28 +2677,25 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>468</v>
+        <v>417</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K8" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="116" x14ac:dyDescent="0.35">
@@ -2848,71 +2703,71 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>469</v>
+        <v>418</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>471</v>
+        <v>420</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>20</v>
@@ -2923,28 +2778,28 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>449</v>
+        <v>398</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>73</v>
+      <c r="J12" s="1">
+        <v>4</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="29" x14ac:dyDescent="0.35">
@@ -2952,28 +2807,28 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>79</v>
+      <c r="J13" s="1">
+        <v>2</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="87" x14ac:dyDescent="0.35">
@@ -2981,28 +2836,28 @@
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>473</v>
+        <v>422</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>34</v>
+      <c r="J14" s="1">
+        <v>4</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="58" x14ac:dyDescent="0.35">
@@ -3010,28 +2865,28 @@
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>461</v>
+        <v>410</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>89</v>
+      <c r="J15" s="1">
+        <v>8</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="145" x14ac:dyDescent="0.35">
@@ -3039,28 +2894,28 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>94</v>
+      <c r="J16" s="1">
+        <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -3068,12 +2923,12 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -3081,8 +2936,8 @@
       <c r="I17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>101</v>
+      <c r="J17" s="1">
+        <v>2</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -3091,32 +2946,32 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="2" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>474</v>
+        <v>423</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>20</v>
@@ -3136,12 +2991,12 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>475</v>
+        <v>424</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3149,43 +3004,43 @@
       <c r="I19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>108</v>
+      <c r="J19" s="1">
+        <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="2" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>453</v>
+        <v>402</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>19</v>
@@ -3203,23 +3058,23 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" s="2" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" s="2" customFormat="1" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>19</v>
@@ -3242,12 +3097,12 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>455</v>
+        <v>404</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -3255,24 +3110,24 @@
       <c r="I22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>34</v>
+      <c r="J22" s="1">
+        <v>4</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -3280,12 +3135,12 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>476</v>
+        <v>425</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -3293,32 +3148,32 @@
       <c r="I23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>124</v>
+      <c r="J23" s="1">
+        <v>4</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="2" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3342,12 +3197,12 @@
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>456</v>
+        <v>405</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -3355,8 +3210,8 @@
       <c r="I25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>131</v>
+      <c r="J25" s="1">
+        <v>2</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -3372,12 +3227,12 @@
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>477</v>
+        <v>426</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3385,8 +3240,8 @@
       <c r="I26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>133</v>
+      <c r="J26" s="1">
+        <v>8</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -3396,26 +3251,26 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="2" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>450</v>
+        <v>399</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>19</v>
@@ -3433,26 +3288,26 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" s="2" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>20</v>
@@ -3472,12 +3327,12 @@
         <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>457</v>
+        <v>406</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -3485,24 +3340,24 @@
       <c r="I29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>124</v>
+      <c r="J29" s="1">
+        <v>4</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:18" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -3510,12 +3365,12 @@
         <v>19</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -3523,24 +3378,24 @@
       <c r="I30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>146</v>
+      <c r="J30" s="1">
+        <v>4</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -3548,12 +3403,12 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -3561,11 +3416,11 @@
       <c r="I31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>152</v>
+      <c r="J31" s="1">
+        <v>4</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>19</v>
@@ -3575,10 +3430,10 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -3586,12 +3441,12 @@
         <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>447</v>
+        <v>396</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3599,24 +3454,24 @@
       <c r="I32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>156</v>
+      <c r="J32" s="1">
+        <v>2</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="2" customFormat="1" ht="174" x14ac:dyDescent="0.35">
@@ -3624,12 +3479,12 @@
         <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>478</v>
+        <v>427</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -3637,41 +3492,41 @@
       <c r="I33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>161</v>
+      <c r="J33" s="1">
+        <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="2" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
@@ -3692,12 +3547,12 @@
         <v>19</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -3705,24 +3560,24 @@
       <c r="I35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>171</v>
+      <c r="J35" s="1">
+        <v>3</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:18" s="2" customFormat="1" ht="145" x14ac:dyDescent="0.35">
@@ -3730,12 +3585,12 @@
         <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3743,24 +3598,24 @@
       <c r="I36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>46</v>
+      <c r="J36" s="1">
+        <v>4</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:18" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
@@ -3768,12 +3623,12 @@
         <v>19</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>479</v>
+        <v>428</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3781,37 +3636,37 @@
       <c r="I37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>46</v>
+      <c r="J37" s="1">
+        <v>4</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3819,24 +3674,24 @@
       <c r="I38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>186</v>
+      <c r="J38" s="1">
+        <v>4</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="2" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
@@ -3844,12 +3699,12 @@
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>480</v>
+        <v>429</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -3857,24 +3712,24 @@
       <c r="I39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>191</v>
+      <c r="J39" s="1">
+        <v>4</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -3882,12 +3737,12 @@
         <v>19</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>481</v>
+        <v>430</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -3895,24 +3750,24 @@
       <c r="I40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>197</v>
+      <c r="J40" s="1">
+        <v>12</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" spans="1:18" s="2" customFormat="1" ht="87" x14ac:dyDescent="0.35">
@@ -3920,12 +3775,12 @@
         <v>19</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -3933,24 +3788,24 @@
       <c r="I41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>201</v>
+      <c r="J41" s="1">
+        <v>4</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:18" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
@@ -3958,12 +3813,12 @@
         <v>19</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>482</v>
+        <v>431</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -3971,11 +3826,11 @@
       <c r="I42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J42" s="1" t="s">
-        <v>207</v>
+      <c r="J42" s="1">
+        <v>4</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>19</v>
@@ -3985,32 +3840,32 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="2" customFormat="1" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>20</v>
@@ -4030,12 +3885,12 @@
         <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -4043,24 +3898,24 @@
       <c r="I44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>217</v>
+      <c r="J44" s="1">
+        <v>2</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:18" s="2" customFormat="1" ht="87" x14ac:dyDescent="0.35">
@@ -4068,12 +3923,12 @@
         <v>19</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -4081,24 +3936,24 @@
       <c r="I45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J45" s="1" t="s">
-        <v>224</v>
+      <c r="J45" s="1">
+        <v>2</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:18" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -4106,12 +3961,12 @@
         <v>19</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>483</v>
+        <v>432</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -4119,46 +3974,46 @@
       <c r="I46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>230</v>
+      <c r="J46" s="1">
+        <v>8</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="2" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>484</v>
+        <v>433</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>20</v>
@@ -4178,12 +4033,12 @@
         <v>19</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -4191,24 +4046,24 @@
       <c r="I48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>124</v>
+      <c r="J48" s="1">
+        <v>4</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="174" x14ac:dyDescent="0.35">
@@ -4216,28 +4071,28 @@
         <v>19</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>485</v>
+        <v>434</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>243</v>
+      <c r="J49" s="1">
+        <v>4</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="87" x14ac:dyDescent="0.35">
@@ -4245,28 +4100,28 @@
         <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J50" s="1" t="s">
-        <v>250</v>
+      <c r="J50" s="1">
+        <v>1</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="58" x14ac:dyDescent="0.35">
@@ -4274,28 +4129,28 @@
         <v>19</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J51" s="1" t="s">
-        <v>256</v>
+      <c r="J51" s="1">
+        <v>1</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
@@ -4303,28 +4158,28 @@
         <v>19</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>486</v>
+        <v>435</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>262</v>
+      <c r="J52" s="1">
+        <v>4</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
@@ -4332,28 +4187,28 @@
         <v>19</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>131</v>
+      <c r="J53" s="1">
+        <v>2</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
@@ -4361,28 +4216,28 @@
         <v>19</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>273</v>
+      <c r="J54" s="1">
+        <v>4</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
@@ -4390,45 +4245,45 @@
         <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>487</v>
+        <v>436</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J55" s="1" t="s">
-        <v>34</v>
+      <c r="J55" s="1">
+        <v>4</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
@@ -4436,42 +4291,42 @@
         <v>19</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J57" s="1" t="s">
-        <v>284</v>
+      <c r="J57" s="1">
+        <v>8</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>19</v>
@@ -4485,28 +4340,28 @@
         <v>19</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>488</v>
+        <v>437</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J59" s="1" t="s">
-        <v>291</v>
+      <c r="J59" s="1">
+        <v>2</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="58" x14ac:dyDescent="0.35">
@@ -4514,28 +4369,28 @@
         <v>19</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>489</v>
+        <v>438</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>40</v>
+      <c r="J60" s="1">
+        <v>4</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="29" x14ac:dyDescent="0.35">
@@ -4544,25 +4399,25 @@
       </c>
       <c r="B61" s="3"/>
       <c r="E61" s="1" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>40</v>
+      <c r="J61" s="1">
+        <v>4</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="58" x14ac:dyDescent="0.35">
@@ -4570,28 +4425,28 @@
         <v>19</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>490</v>
+        <v>439</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J62" s="1" t="s">
-        <v>303</v>
+      <c r="J62" s="1">
+        <v>4</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="58" x14ac:dyDescent="0.35">
@@ -4599,28 +4454,28 @@
         <v>19</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>491</v>
+        <v>440</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J63" s="1" t="s">
-        <v>308</v>
+      <c r="J63" s="1">
+        <v>4</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="145" x14ac:dyDescent="0.35">
@@ -4628,33 +4483,33 @@
         <v>19</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>492</v>
+        <v>441</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J64" s="1" t="s">
-        <v>314</v>
+      <c r="J64" s="1">
+        <v>4</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B65" s="3"/>
       <c r="M65" s="1" t="s">
@@ -4666,28 +4521,28 @@
         <v>19</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J66" s="1" t="s">
-        <v>321</v>
+      <c r="J66" s="1">
+        <v>8</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="29" x14ac:dyDescent="0.35">
@@ -4695,28 +4550,28 @@
         <v>19</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>451</v>
+        <v>400</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J67" s="1" t="s">
-        <v>124</v>
+      <c r="J67" s="1">
+        <v>4</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="R67" s="1" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
     </row>
     <row r="68" spans="1:19" ht="29" x14ac:dyDescent="0.35">
@@ -4724,28 +4579,28 @@
         <v>19</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>493</v>
+        <v>442</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J68" s="1" t="s">
-        <v>328</v>
+      <c r="J68" s="1">
+        <v>12</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="58" x14ac:dyDescent="0.35">
@@ -4753,28 +4608,28 @@
         <v>19</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>458</v>
+        <v>407</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J69" s="1" t="s">
-        <v>332</v>
+      <c r="J69" s="1">
+        <v>2</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="29" x14ac:dyDescent="0.35">
@@ -4782,28 +4637,28 @@
         <v>19</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>336</v>
+        <v>295</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J70" s="1" t="s">
-        <v>337</v>
+      <c r="J70" s="1">
+        <v>2</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q70" s="1" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="116" x14ac:dyDescent="0.35">
@@ -4811,28 +4666,28 @@
         <v>19</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J71" s="1" t="s">
-        <v>89</v>
+      <c r="J71" s="1">
+        <v>8</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>343</v>
+        <v>301</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>345</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="101.5" x14ac:dyDescent="0.35">
@@ -4840,40 +4695,40 @@
         <v>19</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>495</v>
+        <v>444</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J72" s="1" t="s">
-        <v>347</v>
+      <c r="J72" s="1">
+        <v>8</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>349</v>
+        <v>306</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>350</v>
+        <v>307</v>
       </c>
       <c r="R72" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B73" s="3"/>
       <c r="M73" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
@@ -4881,98 +4736,98 @@
         <v>19</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>472</v>
+        <v>421</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>124</v>
+      <c r="J74" s="1">
+        <v>4</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>19</v>
       </c>
       <c r="Q74" s="1" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="87" x14ac:dyDescent="0.35">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B75" s="3"/>
       <c r="M75" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="P75" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>452</v>
+        <v>401</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B77" s="3"/>
       <c r="M77" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>19</v>
       </c>
       <c r="S77" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" ht="58" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>19</v>
@@ -4981,64 +4836,64 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="58" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" ht="58" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>496</v>
+        <v>445</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B80" s="3"/>
       <c r="M80" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="P80" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" s="2" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>497</v>
+        <v>446</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>20</v>
@@ -5058,12 +4913,12 @@
         <v>19</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>456</v>
+        <v>405</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -5071,24 +4926,24 @@
       <c r="I82" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J82" s="1" t="s">
-        <v>372</v>
+      <c r="J82" s="1">
+        <v>4</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:18" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -5096,12 +4951,12 @@
         <v>19</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>498</v>
+        <v>447</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -5109,29 +4964,29 @@
       <c r="I83" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>376</v>
+      <c r="J83" s="1">
+        <v>2</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
       <c r="Q83" s="1" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" s="2" customFormat="1" ht="29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="1"/>
@@ -5149,7 +5004,7 @@
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="1" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -5160,12 +5015,12 @@
         <v>19</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -5173,24 +5028,24 @@
       <c r="I85" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J85" s="1" t="s">
-        <v>382</v>
+      <c r="J85" s="1">
+        <v>4</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
       <c r="Q85" s="1" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:18" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -5198,12 +5053,12 @@
         <v>19</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -5211,24 +5066,24 @@
       <c r="I86" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J86" s="1" t="s">
-        <v>388</v>
+      <c r="J86" s="1">
+        <v>2</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="R86" s="1" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
     </row>
     <row r="87" spans="1:18" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -5236,12 +5091,12 @@
         <v>19</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>486</v>
+        <v>435</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -5249,24 +5104,24 @@
       <c r="I87" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J87" s="1" t="s">
-        <v>394</v>
+      <c r="J87" s="1">
+        <v>4</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="R87" s="1" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
     </row>
     <row r="88" spans="1:18" s="2" customFormat="1" ht="87" x14ac:dyDescent="0.35">
@@ -5274,12 +5129,12 @@
         <v>19</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -5287,24 +5142,24 @@
       <c r="I88" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>124</v>
+      <c r="J88" s="1">
+        <v>4</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="R88" s="1" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="1:18" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -5312,12 +5167,12 @@
         <v>19</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -5325,24 +5180,24 @@
       <c r="I89" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J89" s="1" t="s">
-        <v>404</v>
+      <c r="J89" s="1">
+        <v>2</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>405</v>
+        <v>356</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1" t="s">
-        <v>407</v>
+        <v>358</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" spans="1:18" s="2" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
@@ -5350,12 +5205,12 @@
         <v>19</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -5363,24 +5218,24 @@
       <c r="I90" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J90" s="1" t="s">
-        <v>410</v>
+      <c r="J90" s="1">
+        <v>1</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1" t="s">
-        <v>413</v>
+        <v>363</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>414</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="1:18" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -5388,12 +5243,12 @@
         <v>19</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>459</v>
+        <v>408</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>415</v>
+        <v>365</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -5401,24 +5256,24 @@
       <c r="I91" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J91" s="1" t="s">
-        <v>410</v>
+      <c r="J91" s="1">
+        <v>1</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>416</v>
+        <v>366</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1" t="s">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>418</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="1:18" s="2" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
@@ -5426,12 +5281,12 @@
         <v>19</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>419</v>
+        <v>369</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -5439,24 +5294,24 @@
       <c r="I92" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J92" s="1" t="s">
-        <v>34</v>
+      <c r="J92" s="1">
+        <v>4</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1" t="s">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="R92" s="1" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:18" s="2" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
@@ -5464,12 +5319,12 @@
         <v>19</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>460</v>
+        <v>409</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>425</v>
+        <v>375</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -5477,43 +5332,43 @@
       <c r="I93" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J93" s="1" t="s">
-        <v>382</v>
+      <c r="J93" s="1">
+        <v>4</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>427</v>
+        <v>377</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" s="2" customFormat="1" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>431</v>
+        <v>381</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>19</v>
@@ -5536,12 +5391,12 @@
         <v>19</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>499</v>
+        <v>448</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -5549,24 +5404,24 @@
       <c r="I95" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J95" s="1" t="s">
-        <v>34</v>
+      <c r="J95" s="1">
+        <v>4</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1" t="s">
-        <v>435</v>
+        <v>385</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
     </row>
     <row r="96" spans="1:18" s="2" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -5574,12 +5429,12 @@
         <v>19</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -5587,24 +5442,24 @@
       <c r="I96" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J96" s="1" t="s">
-        <v>438</v>
+      <c r="J96" s="1">
+        <v>3</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>440</v>
+        <v>389</v>
       </c>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1" t="s">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>442</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -5628,17 +5483,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>443</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
